--- a/salida.xlsx
+++ b/salida.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>0.8305084745762712</v>
+        <v>0.7885714285714286</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8813559322033898</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="2">
@@ -451,10 +451,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7288135593220338</v>
+        <v>0.7371428571428571</v>
       </c>
       <c r="D2" t="n">
-        <v>0.903954802259887</v>
+        <v>0.8285714285714286</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9943502824858758</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8192090395480226</v>
+        <v>0.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.864406779661017</v>
+        <v>0.8114285714285714</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.288135593220339</v>
+        <v>0.7942857142857143</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7570621468926554</v>
+        <v>0.7942857142857143</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +523,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7570621468926554</v>
+        <v>0.7942857142857143</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7909604519774012</v>
+        <v>0.8171428571428572</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RB3</t>
+          <t>RB2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -541,16 +541,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.839572192513369</v>
+        <v>0.8343558282208589</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8716577540106952</v>
+        <v>0.8957055214723927</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RB3</t>
+          <t>RB2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.803680981595092</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8877005347593583</v>
+        <v>0.8650306748466258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RB3</t>
+          <t>RB2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9946524064171123</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -586,7 +586,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RB3</t>
+          <t>RB2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8128342245989305</v>
+        <v>0.8220858895705522</v>
       </c>
       <c r="D10" t="n">
-        <v>0.839572192513369</v>
+        <v>0.8159509202453987</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RB3</t>
+          <t>RB2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -613,16 +613,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7967914438502673</v>
+        <v>0.2024539877300613</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7967914438502673</v>
+        <v>0.7975460122699386</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RB3</t>
+          <t>RB2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7967914438502673</v>
+        <v>0.7975460122699386</v>
       </c>
       <c r="D12" t="n">
-        <v>0.839572192513369</v>
+        <v>0.8282208588957055</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RB6</t>
+          <t>RB3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -649,16 +649,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8994708994708994</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RB6</t>
+          <t>RB3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7738095238095238</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8988095238095238</v>
+        <v>0.8677248677248677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RB6</t>
+          <t>RB3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9940476190476191</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -694,7 +694,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RB6</t>
+          <t>RB3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -703,16 +703,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.7976190476190477</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="D16" t="n">
-        <v>0.875</v>
+        <v>0.8677248677248677</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RB6</t>
+          <t>RB3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -721,28 +721,352 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.7566137566137566</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.7566137566137566</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>RB3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7566137566137566</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8201058201058201</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RB4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8054054054054054</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8810810810810811</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RB4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7513513513513513</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8756756756756757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RB4</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CART</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9945945945945946</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RB4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.772972972972973</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8324324324324325</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RB4</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7891891891891892</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7891891891891892</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RB4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7891891891891892</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.827027027027027</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RB5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7945945945945946</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8702702702702703</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RB5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7675675675675676</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.827027027027027</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RB5</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CART</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RB5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8162162162162162</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8432432432432433</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RB5</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2486486486486487</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7675675675675676</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>RB5</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7675675675675676</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7945945945945946</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>RB6</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8034682080924855</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.884393063583815</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RB6</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7514450867052023</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8670520231213873</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RB6</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CART</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9942196531791907</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RB6</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.815028901734104</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8728323699421965</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RB6</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ANN</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.208092485549133</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.791907514450867</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RB6</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.8511904761904762</v>
+      <c r="C36" t="n">
+        <v>0.791907514450867</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8265895953757225</v>
       </c>
     </row>
   </sheetData>
